--- a/NEET_2024_Excel/Individual_Excel/230613.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/230613.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,10 +930,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>545</v>
+        <v>237</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>569</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1049,10 +1049,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>409</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>569</v>
+        <v>489</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>680</v>
+        <v>298</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>340</v>
+        <v>643</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>489</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>643</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>185</v>
+        <v>421</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>424</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>547</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>421</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>559</v>
+        <v>642</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>547</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>642</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>120</v>
+        <v>644</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>196</v>
+        <v>365</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>276</v>
+        <v>459</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>644</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1507,6 +1507,12 @@
       </c>
     </row>
     <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>230</v>
+      </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
@@ -1518,6 +1524,12 @@
       </c>
     </row>
     <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>226</v>
+      </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
@@ -1529,6 +1541,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>136</v>
+      </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
@@ -1540,6 +1558,12 @@
       </c>
     </row>
     <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>625</v>
+      </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -1552,10 +1576,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1569,10 +1593,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1586,10 +1610,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1603,10 +1627,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>133</v>
+        <v>341</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1620,10 +1644,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1637,10 +1661,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1654,10 +1678,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1671,10 +1695,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>625</v>
+        <v>451</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1688,10 +1712,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>514</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1705,10 +1729,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1722,10 +1746,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1739,10 +1763,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1756,10 +1780,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>277</v>
+        <v>388</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1773,10 +1797,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>133</v>
+        <v>635</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1790,10 +1814,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>95</v>
+        <v>693</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1807,10 +1831,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>451</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1824,10 +1848,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1841,10 +1865,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1858,10 +1882,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1875,10 +1899,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>633</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1892,10 +1916,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1909,10 +1933,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>635</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1926,10 +1950,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>693</v>
+        <v>602</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1943,10 +1967,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1960,10 +1984,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -1977,10 +2001,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -1994,10 +2018,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2011,10 +2035,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>633</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2028,10 +2052,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>381</v>
+        <v>526</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2045,10 +2069,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>248</v>
+        <v>425</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2061,6 +2085,12 @@
       </c>
     </row>
     <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>135</v>
+      </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
@@ -2072,6 +2102,12 @@
       </c>
     </row>
     <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>183</v>
+      </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
@@ -2083,6 +2119,12 @@
       </c>
     </row>
     <row r="102" spans="1:5">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>655</v>
+      </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
@@ -2094,6 +2136,12 @@
       </c>
     </row>
     <row r="103" spans="1:5">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>365</v>
+      </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
@@ -2106,10 +2154,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>602</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2123,10 +2171,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2140,10 +2188,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2157,10 +2205,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2174,10 +2222,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2191,10 +2239,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2208,10 +2256,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>526</v>
+        <v>397</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2225,10 +2273,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>425</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2242,10 +2290,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>135</v>
+        <v>576</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2259,10 +2307,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>183</v>
+        <v>634</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2276,10 +2324,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>655</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2293,10 +2341,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2310,10 +2358,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2327,10 +2375,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2344,10 +2392,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>300</v>
+        <v>645</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2361,10 +2409,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>480</v>
+        <v>186</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2378,10 +2426,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2395,10 +2443,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>256</v>
+        <v>542</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2412,10 +2460,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2429,10 +2477,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>115</v>
+        <v>638</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2446,10 +2494,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>576</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2463,10 +2511,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>634</v>
+        <v>302</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2480,10 +2528,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2497,10 +2545,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>109</v>
+        <v>346</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2514,10 +2562,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>348</v>
+        <v>650</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2531,10 +2579,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2548,10 +2596,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>645</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2565,10 +2613,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2582,10 +2630,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2599,10 +2647,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2615,6 +2663,12 @@
       </c>
     </row>
     <row r="134" spans="1:5">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>52</v>
+      </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
@@ -2626,6 +2680,12 @@
       </c>
     </row>
     <row r="135" spans="1:5">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>517</v>
+      </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
@@ -2637,6 +2697,12 @@
       </c>
     </row>
     <row r="136" spans="1:5">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>273</v>
+      </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
@@ -2648,6 +2714,12 @@
       </c>
     </row>
     <row r="137" spans="1:5">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>427</v>
+      </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
@@ -2660,10 +2732,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2677,10 +2749,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>638</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2694,10 +2766,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>189</v>
+        <v>497</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2711,10 +2783,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>302</v>
+        <v>601</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2728,10 +2800,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>332</v>
+        <v>509</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2745,10 +2817,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>346</v>
+        <v>594</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2762,10 +2834,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>650</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2779,10 +2851,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>357</v>
+        <v>134</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2796,10 +2868,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2813,10 +2885,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>156</v>
+        <v>492</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2830,10 +2902,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>86</v>
+        <v>577</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2847,10 +2919,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>521</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2864,10 +2936,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2881,10 +2953,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2898,10 +2970,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2915,10 +2987,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>427</v>
+        <v>560</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2932,10 +3004,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>430</v>
+        <v>111</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2949,10 +3021,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>136</v>
+        <v>598</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2966,10 +3038,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>497</v>
+        <v>588</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2983,10 +3055,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>601</v>
+        <v>469</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3000,10 +3072,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>509</v>
+        <v>236</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3017,10 +3089,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>594</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3034,10 +3106,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>141</v>
+        <v>512</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3051,10 +3123,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>134</v>
+        <v>588</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3068,10 +3140,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>429</v>
+        <v>520</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3085,10 +3157,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>492</v>
+        <v>105</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3102,10 +3174,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>577</v>
+        <v>156</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3119,10 +3191,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3136,10 +3208,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>170</v>
+        <v>405</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3153,10 +3225,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3169,6 +3241,12 @@
       </c>
     </row>
     <row r="168" spans="1:5">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>56</v>
+      </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
@@ -3180,6 +3258,12 @@
       </c>
     </row>
     <row r="169" spans="1:5">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>612</v>
+      </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
@@ -3191,6 +3275,12 @@
       </c>
     </row>
     <row r="170" spans="1:5">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>239</v>
+      </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
@@ -3202,6 +3292,12 @@
       </c>
     </row>
     <row r="171" spans="1:5">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>355</v>
+      </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
@@ -3214,10 +3310,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>213</v>
+        <v>568</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3231,10 +3327,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>560</v>
+        <v>485</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3248,10 +3344,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3265,10 +3361,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>598</v>
+        <v>247</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3282,10 +3378,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3299,10 +3395,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>469</v>
+        <v>120</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3316,10 +3412,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3333,10 +3429,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>368</v>
+        <v>200</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3350,10 +3446,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>512</v>
+        <v>239</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3367,10 +3463,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3384,10 +3480,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>520</v>
+        <v>285</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3401,10 +3497,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3418,10 +3514,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3435,10 +3531,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3452,10 +3548,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>405</v>
+        <v>676</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3469,10 +3565,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>562</v>
+        <v>240</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3486,10 +3582,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>56</v>
+        <v>635</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3503,10 +3599,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>612</v>
+        <v>248</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3520,10 +3616,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>239</v>
+        <v>493</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3537,10 +3633,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3554,10 +3650,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>568</v>
+        <v>410</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3571,10 +3667,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>485</v>
+        <v>675</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3588,10 +3684,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>319</v>
+        <v>105</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3605,10 +3701,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3622,10 +3718,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>657</v>
+        <v>170</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3639,10 +3735,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3656,10 +3752,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3673,10 +3769,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3690,10 +3786,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>239</v>
+        <v>542</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3707,10 +3803,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>618</v>
+        <v>205</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3723,6 +3819,12 @@
       </c>
     </row>
     <row r="202" spans="1:5">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>501</v>
+      </c>
       <c r="C202" t="s">
         <v>5</v>
       </c>
@@ -3734,6 +3836,12 @@
       </c>
     </row>
     <row r="203" spans="1:5">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>640</v>
+      </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
@@ -3745,6 +3853,12 @@
       </c>
     </row>
     <row r="204" spans="1:5">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>447</v>
+      </c>
       <c r="C204" t="s">
         <v>5</v>
       </c>
@@ -3756,6 +3870,12 @@
       </c>
     </row>
     <row r="205" spans="1:5">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>35</v>
+      </c>
       <c r="C205" t="s">
         <v>5</v>
       </c>
@@ -3768,10 +3888,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>285</v>
+        <v>502</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3785,10 +3905,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>271</v>
+        <v>616</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3802,10 +3922,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B208">
-        <v>102</v>
+        <v>606</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3819,10 +3939,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3836,10 +3956,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>676</v>
+        <v>224</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3853,10 +3973,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>240</v>
+        <v>652</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3870,10 +3990,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>635</v>
+        <v>189</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3887,10 +4007,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B213">
-        <v>248</v>
+        <v>559</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3904,10 +4024,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B214">
-        <v>493</v>
+        <v>239</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3921,10 +4041,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3938,10 +4058,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3955,10 +4075,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B217">
-        <v>675</v>
+        <v>76</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3972,10 +4092,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>105</v>
+        <v>401</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3989,10 +4109,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>118</v>
+        <v>485</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4006,10 +4126,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B220">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4023,10 +4143,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B221">
-        <v>104</v>
+        <v>677</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4040,10 +4160,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B222">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4057,10 +4177,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>166</v>
+        <v>427</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4074,10 +4194,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B224">
-        <v>542</v>
+        <v>300</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4091,10 +4211,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B225">
-        <v>205</v>
+        <v>677</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4108,10 +4228,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B226">
-        <v>501</v>
+        <v>431</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4125,10 +4245,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B227">
-        <v>640</v>
+        <v>555</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4142,10 +4262,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B228">
-        <v>447</v>
+        <v>353</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4159,10 +4279,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B229">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4176,10 +4296,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>502</v>
+        <v>637</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4193,10 +4313,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B231">
-        <v>616</v>
+        <v>210</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4210,10 +4330,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B232">
-        <v>606</v>
+        <v>242</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4227,10 +4347,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B233">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4244,10 +4364,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4261,10 +4381,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B235">
-        <v>652</v>
+        <v>134</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4277,6 +4397,12 @@
       </c>
     </row>
     <row r="236" spans="1:5">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>410</v>
+      </c>
       <c r="C236" t="s">
         <v>5</v>
       </c>
@@ -4288,6 +4414,12 @@
       </c>
     </row>
     <row r="237" spans="1:5">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>457</v>
+      </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
@@ -4299,6 +4431,12 @@
       </c>
     </row>
     <row r="238" spans="1:5">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>396</v>
+      </c>
       <c r="C238" t="s">
         <v>5</v>
       </c>
@@ -4310,6 +4448,12 @@
       </c>
     </row>
     <row r="239" spans="1:5">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>381</v>
+      </c>
       <c r="C239" t="s">
         <v>5</v>
       </c>
@@ -4322,10 +4466,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4339,10 +4483,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B241">
-        <v>559</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4356,10 +4500,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B242">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4373,10 +4517,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B243">
-        <v>325</v>
+        <v>671</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4390,10 +4534,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B244">
-        <v>452</v>
+        <v>106</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4407,10 +4551,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B245">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4424,10 +4568,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="B246">
-        <v>401</v>
+        <v>124</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4441,10 +4585,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B247">
-        <v>485</v>
+        <v>304</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4458,10 +4602,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B248">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4475,10 +4619,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="B249">
-        <v>677</v>
+        <v>608</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4492,10 +4636,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="B250">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4509,10 +4653,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="B251">
-        <v>427</v>
+        <v>651</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4526,10 +4670,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B252">
-        <v>300</v>
+        <v>685</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4543,10 +4687,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="B253">
-        <v>677</v>
+        <v>599</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4560,10 +4704,10 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="B254">
-        <v>431</v>
+        <v>155</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4577,10 +4721,10 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="B255">
-        <v>555</v>
+        <v>298</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4594,10 +4738,10 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B256">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4611,7 +4755,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>92</v>
@@ -4628,10 +4772,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="B258">
-        <v>637</v>
+        <v>215</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4645,10 +4789,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B259">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4662,10 +4806,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="B260">
-        <v>242</v>
+        <v>690</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4679,10 +4823,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="B261">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4696,10 +4840,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="B262">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4713,10 +4857,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4730,10 +4874,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B264">
-        <v>410</v>
+        <v>574</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4747,10 +4891,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4764,10 +4908,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>396</v>
+        <v>106</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4781,10 +4925,10 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="B267">
-        <v>381</v>
+        <v>491</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4798,10 +4942,10 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="B268">
-        <v>149</v>
+        <v>511</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4815,10 +4959,10 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B269">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4831,6 +4975,12 @@
       </c>
     </row>
     <row r="270" spans="1:5">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>48</v>
+      </c>
       <c r="C270" t="s">
         <v>5</v>
       </c>
@@ -4842,6 +4992,12 @@
       </c>
     </row>
     <row r="271" spans="1:5">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>468</v>
+      </c>
       <c r="C271" t="s">
         <v>5</v>
       </c>
@@ -4853,6 +5009,12 @@
       </c>
     </row>
     <row r="272" spans="1:5">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
       <c r="C272" t="s">
         <v>5</v>
       </c>
@@ -4864,6 +5026,12 @@
       </c>
     </row>
     <row r="273" spans="1:5">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>483</v>
+      </c>
       <c r="C273" t="s">
         <v>5</v>
       </c>
@@ -4876,10 +5044,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B274">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4893,10 +5061,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B275">
-        <v>671</v>
+        <v>142</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4910,10 +5078,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="B276">
-        <v>106</v>
+        <v>672</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4927,10 +5095,10 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B277">
-        <v>415</v>
+        <v>582</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4944,10 +5112,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="B278">
-        <v>124</v>
+        <v>475</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4961,10 +5129,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B279">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4978,10 +5146,10 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B280">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4995,10 +5163,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="B281">
-        <v>608</v>
+        <v>691</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5012,10 +5180,10 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B282">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5029,10 +5197,10 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="B283">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5046,10 +5214,10 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="B284">
-        <v>685</v>
+        <v>361</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5063,10 +5231,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="B285">
-        <v>599</v>
+        <v>434</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5080,10 +5248,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="B286">
-        <v>155</v>
+        <v>444</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5097,10 +5265,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="B287">
-        <v>298</v>
+        <v>690</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5114,10 +5282,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="B288">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5131,10 +5299,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B289">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5148,10 +5316,10 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="B290">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5165,10 +5333,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="B291">
-        <v>138</v>
+        <v>423</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5182,10 +5350,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="B292">
-        <v>690</v>
+        <v>49</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5199,10 +5367,10 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="B293">
-        <v>608</v>
+        <v>298</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5216,10 +5384,10 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="B294">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5233,10 +5401,10 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="B295">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5250,10 +5418,10 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="B296">
-        <v>574</v>
+        <v>383</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5267,10 +5435,10 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B297">
-        <v>528</v>
+        <v>284</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5284,10 +5452,10 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="B298">
-        <v>106</v>
+        <v>497</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5301,10 +5469,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="B299">
-        <v>491</v>
+        <v>685</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5318,10 +5486,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="B300">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5335,10 +5503,10 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="B301">
-        <v>47</v>
+        <v>638</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5352,10 +5520,10 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="B302">
-        <v>48</v>
+        <v>545</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5369,10 +5537,10 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="B303">
-        <v>468</v>
+        <v>265</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5385,6 +5553,12 @@
       </c>
     </row>
     <row r="304" spans="1:5">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>680</v>
+      </c>
       <c r="C304" t="s">
         <v>5</v>
       </c>
@@ -5396,6 +5570,12 @@
       </c>
     </row>
     <row r="305" spans="1:5">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>426</v>
+      </c>
       <c r="C305" t="s">
         <v>5</v>
       </c>
@@ -5403,582 +5583,6 @@
         <v>6</v>
       </c>
       <c r="E305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="C306" t="s">
-        <v>5</v>
-      </c>
-      <c r="D306" t="s">
-        <v>6</v>
-      </c>
-      <c r="E306" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="C307" t="s">
-        <v>5</v>
-      </c>
-      <c r="D307" t="s">
-        <v>6</v>
-      </c>
-      <c r="E307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308">
-        <v>271</v>
-      </c>
-      <c r="B308">
-        <v>271</v>
-      </c>
-      <c r="C308" t="s">
-        <v>5</v>
-      </c>
-      <c r="D308" t="s">
-        <v>6</v>
-      </c>
-      <c r="E308" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309">
-        <v>272</v>
-      </c>
-      <c r="B309">
-        <v>483</v>
-      </c>
-      <c r="C309" t="s">
-        <v>5</v>
-      </c>
-      <c r="D309" t="s">
-        <v>6</v>
-      </c>
-      <c r="E309" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310">
-        <v>273</v>
-      </c>
-      <c r="B310">
-        <v>94</v>
-      </c>
-      <c r="C310" t="s">
-        <v>5</v>
-      </c>
-      <c r="D310" t="s">
-        <v>6</v>
-      </c>
-      <c r="E310" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311">
-        <v>274</v>
-      </c>
-      <c r="B311">
-        <v>142</v>
-      </c>
-      <c r="C311" t="s">
-        <v>5</v>
-      </c>
-      <c r="D311" t="s">
-        <v>6</v>
-      </c>
-      <c r="E311" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312">
-        <v>275</v>
-      </c>
-      <c r="B312">
-        <v>672</v>
-      </c>
-      <c r="C312" t="s">
-        <v>5</v>
-      </c>
-      <c r="D312" t="s">
-        <v>6</v>
-      </c>
-      <c r="E312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313">
-        <v>276</v>
-      </c>
-      <c r="B313">
-        <v>582</v>
-      </c>
-      <c r="C313" t="s">
-        <v>5</v>
-      </c>
-      <c r="D313" t="s">
-        <v>6</v>
-      </c>
-      <c r="E313" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314">
-        <v>277</v>
-      </c>
-      <c r="B314">
-        <v>475</v>
-      </c>
-      <c r="C314" t="s">
-        <v>5</v>
-      </c>
-      <c r="D314" t="s">
-        <v>6</v>
-      </c>
-      <c r="E314" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315">
-        <v>278</v>
-      </c>
-      <c r="B315">
-        <v>205</v>
-      </c>
-      <c r="C315" t="s">
-        <v>5</v>
-      </c>
-      <c r="D315" t="s">
-        <v>6</v>
-      </c>
-      <c r="E315" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316">
-        <v>279</v>
-      </c>
-      <c r="B316">
-        <v>304</v>
-      </c>
-      <c r="C316" t="s">
-        <v>5</v>
-      </c>
-      <c r="D316" t="s">
-        <v>6</v>
-      </c>
-      <c r="E316" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317">
-        <v>280</v>
-      </c>
-      <c r="B317">
-        <v>691</v>
-      </c>
-      <c r="C317" t="s">
-        <v>5</v>
-      </c>
-      <c r="D317" t="s">
-        <v>6</v>
-      </c>
-      <c r="E317" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318">
-        <v>281</v>
-      </c>
-      <c r="B318">
-        <v>378</v>
-      </c>
-      <c r="C318" t="s">
-        <v>5</v>
-      </c>
-      <c r="D318" t="s">
-        <v>6</v>
-      </c>
-      <c r="E318" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319">
-        <v>282</v>
-      </c>
-      <c r="B319">
-        <v>683</v>
-      </c>
-      <c r="C319" t="s">
-        <v>5</v>
-      </c>
-      <c r="D319" t="s">
-        <v>6</v>
-      </c>
-      <c r="E319" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320">
-        <v>283</v>
-      </c>
-      <c r="B320">
-        <v>361</v>
-      </c>
-      <c r="C320" t="s">
-        <v>5</v>
-      </c>
-      <c r="D320" t="s">
-        <v>6</v>
-      </c>
-      <c r="E320" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321">
-        <v>284</v>
-      </c>
-      <c r="B321">
-        <v>434</v>
-      </c>
-      <c r="C321" t="s">
-        <v>5</v>
-      </c>
-      <c r="D321" t="s">
-        <v>6</v>
-      </c>
-      <c r="E321" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322">
-        <v>285</v>
-      </c>
-      <c r="B322">
-        <v>444</v>
-      </c>
-      <c r="C322" t="s">
-        <v>5</v>
-      </c>
-      <c r="D322" t="s">
-        <v>6</v>
-      </c>
-      <c r="E322" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323">
-        <v>286</v>
-      </c>
-      <c r="B323">
-        <v>690</v>
-      </c>
-      <c r="C323" t="s">
-        <v>5</v>
-      </c>
-      <c r="D323" t="s">
-        <v>6</v>
-      </c>
-      <c r="E323" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324">
-        <v>287</v>
-      </c>
-      <c r="B324">
-        <v>437</v>
-      </c>
-      <c r="C324" t="s">
-        <v>5</v>
-      </c>
-      <c r="D324" t="s">
-        <v>6</v>
-      </c>
-      <c r="E324" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325">
-        <v>288</v>
-      </c>
-      <c r="B325">
-        <v>43</v>
-      </c>
-      <c r="C325" t="s">
-        <v>5</v>
-      </c>
-      <c r="D325" t="s">
-        <v>6</v>
-      </c>
-      <c r="E325" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326">
-        <v>289</v>
-      </c>
-      <c r="B326">
-        <v>221</v>
-      </c>
-      <c r="C326" t="s">
-        <v>5</v>
-      </c>
-      <c r="D326" t="s">
-        <v>6</v>
-      </c>
-      <c r="E326" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327">
-        <v>290</v>
-      </c>
-      <c r="B327">
-        <v>423</v>
-      </c>
-      <c r="C327" t="s">
-        <v>5</v>
-      </c>
-      <c r="D327" t="s">
-        <v>6</v>
-      </c>
-      <c r="E327" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328">
-        <v>291</v>
-      </c>
-      <c r="B328">
-        <v>49</v>
-      </c>
-      <c r="C328" t="s">
-        <v>5</v>
-      </c>
-      <c r="D328" t="s">
-        <v>6</v>
-      </c>
-      <c r="E328" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329">
-        <v>292</v>
-      </c>
-      <c r="B329">
-        <v>298</v>
-      </c>
-      <c r="C329" t="s">
-        <v>5</v>
-      </c>
-      <c r="D329" t="s">
-        <v>6</v>
-      </c>
-      <c r="E329" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330">
-        <v>293</v>
-      </c>
-      <c r="B330">
-        <v>347</v>
-      </c>
-      <c r="C330" t="s">
-        <v>5</v>
-      </c>
-      <c r="D330" t="s">
-        <v>6</v>
-      </c>
-      <c r="E330" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331">
-        <v>294</v>
-      </c>
-      <c r="B331">
-        <v>174</v>
-      </c>
-      <c r="C331" t="s">
-        <v>5</v>
-      </c>
-      <c r="D331" t="s">
-        <v>6</v>
-      </c>
-      <c r="E331" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332">
-        <v>295</v>
-      </c>
-      <c r="B332">
-        <v>383</v>
-      </c>
-      <c r="C332" t="s">
-        <v>5</v>
-      </c>
-      <c r="D332" t="s">
-        <v>6</v>
-      </c>
-      <c r="E332" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333">
-        <v>296</v>
-      </c>
-      <c r="B333">
-        <v>284</v>
-      </c>
-      <c r="C333" t="s">
-        <v>5</v>
-      </c>
-      <c r="D333" t="s">
-        <v>6</v>
-      </c>
-      <c r="E333" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334">
-        <v>297</v>
-      </c>
-      <c r="B334">
-        <v>497</v>
-      </c>
-      <c r="C334" t="s">
-        <v>5</v>
-      </c>
-      <c r="D334" t="s">
-        <v>6</v>
-      </c>
-      <c r="E334" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335">
-        <v>298</v>
-      </c>
-      <c r="B335">
-        <v>685</v>
-      </c>
-      <c r="C335" t="s">
-        <v>5</v>
-      </c>
-      <c r="D335" t="s">
-        <v>6</v>
-      </c>
-      <c r="E335" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336">
-        <v>299</v>
-      </c>
-      <c r="B336">
-        <v>522</v>
-      </c>
-      <c r="C336" t="s">
-        <v>5</v>
-      </c>
-      <c r="D336" t="s">
-        <v>6</v>
-      </c>
-      <c r="E336" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337">
-        <v>300</v>
-      </c>
-      <c r="B337">
-        <v>638</v>
-      </c>
-      <c r="C337" t="s">
-        <v>5</v>
-      </c>
-      <c r="D337" t="s">
-        <v>6</v>
-      </c>
-      <c r="E337" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="C338" t="s">
-        <v>5</v>
-      </c>
-      <c r="D338" t="s">
-        <v>6</v>
-      </c>
-      <c r="E338" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="C339" t="s">
-        <v>5</v>
-      </c>
-      <c r="D339" t="s">
-        <v>6</v>
-      </c>
-      <c r="E339" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="C340" t="s">
-        <v>5</v>
-      </c>
-      <c r="D340" t="s">
-        <v>6</v>
-      </c>
-      <c r="E340" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="C341" t="s">
-        <v>5</v>
-      </c>
-      <c r="D341" t="s">
-        <v>6</v>
-      </c>
-      <c r="E341" t="s">
         <v>7</v>
       </c>
     </row>
